--- a/docs/StructureDefinition-VAVitalsEntry.xlsx
+++ b/docs/StructureDefinition-VAVitalsEntry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="325">
   <si>
     <t>Path</t>
   </si>
@@ -323,204 +323,201 @@
     <t>Provenance.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Target Reference(s) (usually version specific)</t>
+  </si>
+  <si>
+    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
+  </si>
+  <si>
+    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
+  </si>
+  <si>
+    <t>Entity Created/Updated</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.reference</t>
+  </si>
+  <si>
+    <t>Provenance.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the activity occurred</t>
+  </si>
+  <si>
+    <t>The period during which the activity occurred.</t>
+  </si>
+  <si>
+    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
+  </si>
+  <si>
+    <t>./effectiveTime[type=IVL_TS]</t>
+  </si>
+  <si>
+    <t>Activity.startTime &amp; Activity.endTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>Provenance.recorded</t>
+  </si>
+  <si>
+    <t>DATE/TIME VITALS ENTERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time  Entered</t>
+  </si>
+  <si>
+    <t>This field contains the date/time that this record was entered.</t>
+  </si>
+  <si>
+    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
+  </si>
+  <si>
+    <t>GMRV VITAL MEASUREMENT  @DATE/TIME VITALS ENTERED 120.5-.04</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
+  </si>
+  <si>
+    <t>Activity.when</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>AuditEvent.recorded</t>
+  </si>
+  <si>
+    <t>Provenance.policy</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
+  </si>
+  <si>
+    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
+  </si>
+  <si>
+    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.policy</t>
+  </si>
+  <si>
+    <t>Provenance.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant.</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>Activity.location</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.location</t>
+  </si>
+  <si>
+    <t>Provenance.location.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Provenance.location.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Provenance.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Target Reference(s) (usually version specific)</t>
-  </si>
-  <si>
-    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
-  </si>
-  <si>
-    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
-  </si>
-  <si>
-    <t>Entity Created/Updated</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.reference</t>
-  </si>
-  <si>
-    <t>Provenance.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the activity occurred</t>
-  </si>
-  <si>
-    <t>The period during which the activity occurred.</t>
-  </si>
-  <si>
-    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
-  </si>
-  <si>
-    <t>./effectiveTime[type=IVL_TS]</t>
-  </si>
-  <si>
-    <t>Activity.startTime &amp; Activity.endTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>Provenance.recorded</t>
-  </si>
-  <si>
-    <t>DATE/TIME VITALS ENTERED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date/Time  Entered</t>
-  </si>
-  <si>
-    <t>This field contains the date/time that this record was entered.</t>
-  </si>
-  <si>
-    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
-  </si>
-  <si>
-    <t>GMRV VITAL MEASUREMENT  @DATE/TIME VITALS ENTERED 120.5-.04</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
-  </si>
-  <si>
-    <t>Activity.when</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>AuditEvent.recorded</t>
-  </si>
-  <si>
-    <t>Provenance.policy</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
-  </si>
-  <si>
-    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
-  </si>
-  <si>
-    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.policy</t>
-  </si>
-  <si>
-    <t>Provenance.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant.</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>Activity.location</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.location</t>
-  </si>
-  <si>
-    <t>Provenance.location.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Provenance.location.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2151,7 +2148,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2170,15 +2167,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2215,14 +2214,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>103</v>
@@ -2243,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>44</v>
@@ -2261,7 +2262,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2280,16 +2281,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2339,7 +2340,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2371,7 +2372,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2394,16 +2395,16 @@
         <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2453,7 +2454,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>53</v>
@@ -2471,21 +2472,21 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2508,16 +2509,16 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2567,7 +2568,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2585,13 +2586,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2599,14 +2600,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>53</v>
@@ -2624,16 +2625,16 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2683,7 +2684,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>53</v>
@@ -2698,24 +2699,24 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2741,13 +2742,13 @@
         <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2797,7 +2798,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2815,7 +2816,7 @@
         <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>44</v>
@@ -2824,12 +2825,12 @@
         <v>44</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2852,13 +2853,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2909,7 +2910,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2927,21 +2928,21 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2964,13 +2965,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3021,7 +3022,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3039,7 +3040,7 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>44</v>
@@ -3053,11 +3054,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3076,16 +3077,16 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3123,19 +3124,19 @@
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3153,7 +3154,7 @@
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>44</v>
@@ -3167,7 +3168,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3190,16 +3191,16 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3249,16 +3250,16 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>44</v>
@@ -3281,14 +3282,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>42</v>
@@ -3306,16 +3307,16 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3365,25 +3366,25 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3397,14 +3398,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>42</v>
@@ -3422,16 +3423,16 @@
         <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3481,22 +3482,22 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>96</v>
@@ -3513,7 +3514,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3536,13 +3537,13 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3572,11 +3573,11 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3611,21 +3612,21 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3648,13 +3649,13 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3684,60 +3685,60 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AL22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3760,13 +3761,13 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3817,7 +3818,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3835,7 +3836,7 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -3849,11 +3850,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3872,16 +3873,16 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3919,19 +3920,19 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3949,7 +3950,7 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -3963,7 +3964,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3989,16 +3990,16 @@
         <v>66</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4047,25 +4048,25 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
@@ -4079,7 +4080,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4102,16 +4103,16 @@
         <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4161,25 +4162,25 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
@@ -4193,7 +4194,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4219,81 +4220,81 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4307,7 +4308,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4330,17 +4331,17 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4389,25 +4390,25 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
@@ -4421,7 +4422,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4444,19 +4445,19 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4505,25 +4506,25 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
@@ -4537,7 +4538,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4560,19 +4561,19 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4621,7 +4622,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>53</v>
@@ -4633,27 +4634,27 @@
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4676,13 +4677,13 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4733,7 +4734,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4751,7 +4752,7 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
@@ -4765,11 +4766,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4788,16 +4789,16 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4847,7 +4848,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4865,7 +4866,7 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
@@ -4879,11 +4880,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4902,16 +4903,16 @@
         <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4961,7 +4962,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4993,7 +4994,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5016,16 +5017,16 @@
         <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5054,11 +5055,11 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5093,21 +5094,21 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5130,13 +5131,13 @@
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5175,41 +5176,41 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5217,16 +5218,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="E36" t="s" s="2">
         <v>53</v>
@@ -5244,13 +5245,13 @@
         <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5301,7 +5302,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>53</v>
@@ -5316,16 +5317,16 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5333,7 +5334,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5356,13 +5357,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5413,7 +5414,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5431,7 +5432,7 @@
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
@@ -5445,7 +5446,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5468,13 +5469,13 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5501,52 +5502,52 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="X38" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="X38" t="s" s="2">
+      <c r="Y38" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -5557,7 +5558,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5580,16 +5581,16 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5639,7 +5640,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5651,27 +5652,27 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5694,13 +5695,13 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5751,7 +5752,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5769,7 +5770,7 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
@@ -5783,11 +5784,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5806,16 +5807,16 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5865,7 +5866,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5883,7 +5884,7 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
@@ -5897,11 +5898,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5920,16 +5921,16 @@
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5979,7 +5980,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6011,7 +6012,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6037,10 +6038,10 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6067,63 +6068,63 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="X43" t="s" s="2">
+      <c r="Y43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6146,16 +6147,16 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6205,7 +6206,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>53</v>
@@ -6223,21 +6224,21 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6263,13 +6264,13 @@
         <v>44</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6319,7 +6320,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6337,7 +6338,7 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
@@ -6351,7 +6352,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6374,13 +6375,13 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6431,7 +6432,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6449,7 +6450,7 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>

--- a/docs/StructureDefinition-VAVitalsEntry.xlsx
+++ b/docs/StructureDefinition-VAVitalsEntry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="326">
   <si>
     <t>Path</t>
   </si>
@@ -663,6 +663,9 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
+    <t>http://www.va.gov/Terminology/VistADefinedTerms/120.5-.06</t>
+  </si>
+  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -699,7 +702,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>entered</t>
+    <t>enter</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -3962,7 +3965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>202</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>53</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>44</v>
@@ -4006,7 +4009,7 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>44</v>
@@ -4048,7 +4051,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4066,7 +4069,7 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
@@ -4080,7 +4083,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4106,13 +4109,13 @@
         <v>151</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4162,7 +4165,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4180,7 +4183,7 @@
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
@@ -4194,7 +4197,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4220,21 +4223,21 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>44</v>
@@ -4276,7 +4279,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4294,7 +4297,7 @@
         <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4308,7 +4311,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4334,14 +4337,14 @@
         <v>151</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4390,7 +4393,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4408,7 +4411,7 @@
         <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
@@ -4422,7 +4425,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4445,19 +4448,19 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4506,7 +4509,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4524,7 +4527,7 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
@@ -4538,7 +4541,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4561,19 +4564,19 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4622,7 +4625,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>53</v>
@@ -4634,27 +4637,27 @@
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4766,7 +4769,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4880,11 +4883,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4909,7 +4912,7 @@
         <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>102</v>
@@ -4962,7 +4965,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4994,7 +4997,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5017,16 +5020,16 @@
         <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5055,10 +5058,10 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5076,7 +5079,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5094,21 +5097,21 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5131,13 +5134,13 @@
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5176,17 +5179,17 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>53</v>
@@ -5204,13 +5207,13 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5218,16 +5221,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s" s="2">
         <v>53</v>
@@ -5245,13 +5248,13 @@
         <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5302,7 +5305,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>53</v>
@@ -5317,16 +5320,16 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5334,7 +5337,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5357,13 +5360,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5414,7 +5417,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5432,7 +5435,7 @@
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
@@ -5446,7 +5449,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5469,13 +5472,13 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5502,13 +5505,13 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -5526,7 +5529,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5544,10 +5547,10 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -5558,7 +5561,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5581,16 +5584,16 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5640,7 +5643,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5652,27 +5655,27 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5784,7 +5787,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5898,11 +5901,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5927,7 +5930,7 @@
         <v>105</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>102</v>
@@ -5980,7 +5983,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6012,7 +6015,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6038,10 +6041,10 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6068,13 +6071,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -6092,7 +6095,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>53</v>
@@ -6110,21 +6113,21 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6147,16 +6150,16 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6206,7 +6209,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>53</v>
@@ -6224,10 +6227,10 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
@@ -6238,7 +6241,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6264,13 +6267,13 @@
         <v>44</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6320,7 +6323,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6338,7 +6341,7 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
@@ -6352,7 +6355,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6375,13 +6378,13 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6432,7 +6435,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6450,7 +6453,7 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
